--- a/klassegr/klassegrenser_PIT.xlsx
+++ b/klassegr/klassegrenser_PIT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\klassegr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BC77BF-F008-40A6-A73D-2D0BAF27E34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF63DF71-434D-4C10-B6C0-C1D6D27548F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
@@ -488,9 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA05597-937A-43B7-A68B-18184DD83021}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -528,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C2">
         <v>60.84</v>
@@ -549,7 +547,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I2">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -557,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C3">
         <v>60.84</v>
@@ -578,7 +576,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I3">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -586,7 +584,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C4">
         <v>60.84</v>
@@ -607,7 +605,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I4">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -615,7 +613,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C5">
         <v>60.84</v>
@@ -636,7 +634,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I5">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -644,7 +642,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C6">
         <v>60.84</v>
@@ -665,7 +663,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I6">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -673,7 +671,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C7">
         <v>60.84</v>
@@ -694,7 +692,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I7">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -702,7 +700,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C8">
         <v>60.84</v>
@@ -723,7 +721,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I8">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -731,7 +729,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C9">
         <v>60.84</v>
@@ -752,7 +750,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I9">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -760,7 +758,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C10">
         <v>60.84</v>
@@ -781,7 +779,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I10">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -789,7 +787,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C11">
         <v>60.84</v>
@@ -810,7 +808,7 @@
         <v>6.71</v>
       </c>
       <c r="I11">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -818,7 +816,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C12">
         <v>60.84</v>
@@ -839,7 +837,7 @@
         <v>6.71</v>
       </c>
       <c r="I12">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -847,7 +845,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C13">
         <v>60.84</v>
@@ -868,7 +866,7 @@
         <v>6.71</v>
       </c>
       <c r="I13">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -876,7 +874,7 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C14">
         <v>60.84</v>
@@ -897,7 +895,7 @@
         <v>6.71</v>
       </c>
       <c r="I14">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -905,7 +903,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C15">
         <v>60.84</v>
@@ -926,7 +924,7 @@
         <v>6.71</v>
       </c>
       <c r="I15">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -934,7 +932,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C16">
         <v>60.84</v>
@@ -955,7 +953,7 @@
         <v>6.71</v>
       </c>
       <c r="I16">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -963,7 +961,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C17">
         <v>60.84</v>
@@ -984,7 +982,7 @@
         <v>6.71</v>
       </c>
       <c r="I17">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -992,7 +990,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C18">
         <v>60.84</v>
@@ -1013,7 +1011,7 @@
         <v>6.71</v>
       </c>
       <c r="I18">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1021,7 +1019,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C19">
         <v>60.84</v>
@@ -1042,7 +1040,7 @@
         <v>6.71</v>
       </c>
       <c r="I19">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1050,7 +1048,7 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C20">
         <v>60.84</v>
@@ -1071,7 +1069,7 @@
         <v>6.71</v>
       </c>
       <c r="I20">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1079,7 +1077,7 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C21">
         <v>60.84</v>
@@ -1100,7 +1098,7 @@
         <v>6.71</v>
       </c>
       <c r="I21">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1108,7 +1106,7 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C22">
         <v>60.84</v>
@@ -1129,7 +1127,7 @@
         <v>6.71</v>
       </c>
       <c r="I22">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1137,7 +1135,7 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C23">
         <v>60.84</v>
@@ -1158,7 +1156,7 @@
         <v>6.71</v>
       </c>
       <c r="I23">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1166,7 +1164,7 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C24">
         <v>60.84</v>
@@ -1187,7 +1185,7 @@
         <v>6.71</v>
       </c>
       <c r="I24">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1195,7 +1193,7 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>60.84</v>
+        <v>68.91</v>
       </c>
       <c r="C25">
         <v>60.84</v>
@@ -1216,7 +1214,7 @@
         <v>6.71</v>
       </c>
       <c r="I25">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
     </row>
   </sheetData>

--- a/klassegr/klassegrenser_PIT.xlsx
+++ b/klassegr/klassegrenser_PIT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\klassegr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF63DF71-434D-4C10-B6C0-C1D6D27548F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B78AEF6-6EEE-44CE-AEB7-11BE54F6C496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -488,7 +488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA05597-937A-43B7-A68B-18184DD83021}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -526,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C2">
         <v>60.84</v>
@@ -555,7 +557,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C3">
         <v>60.84</v>
@@ -584,7 +586,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C4">
         <v>60.84</v>
@@ -613,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>60.84</v>
@@ -642,7 +644,7 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>60.84</v>
@@ -671,7 +673,7 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>60.84</v>
@@ -700,7 +702,7 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>60.84</v>
@@ -729,7 +731,7 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>60.84</v>
@@ -758,7 +760,7 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>60.84</v>
@@ -787,7 +789,7 @@
         <v>18</v>
       </c>
       <c r="B11">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>60.84</v>
@@ -816,7 +818,7 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C12">
         <v>60.84</v>
@@ -845,7 +847,7 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C13">
         <v>60.84</v>
@@ -874,7 +876,7 @@
         <v>21</v>
       </c>
       <c r="B14">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C14">
         <v>60.84</v>
@@ -903,7 +905,7 @@
         <v>22</v>
       </c>
       <c r="B15">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C15">
         <v>60.84</v>
@@ -932,7 +934,7 @@
         <v>23</v>
       </c>
       <c r="B16">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C16">
         <v>60.84</v>
@@ -961,7 +963,7 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C17">
         <v>60.84</v>
@@ -990,7 +992,7 @@
         <v>25</v>
       </c>
       <c r="B18">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C18">
         <v>60.84</v>
@@ -1019,7 +1021,7 @@
         <v>26</v>
       </c>
       <c r="B19">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C19">
         <v>60.84</v>
@@ -1048,7 +1050,7 @@
         <v>27</v>
       </c>
       <c r="B20">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C20">
         <v>60.84</v>
@@ -1077,7 +1079,7 @@
         <v>28</v>
       </c>
       <c r="B21">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C21">
         <v>60.84</v>
@@ -1106,7 +1108,7 @@
         <v>29</v>
       </c>
       <c r="B22">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C22">
         <v>60.84</v>
@@ -1135,7 +1137,7 @@
         <v>30</v>
       </c>
       <c r="B23">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>60.84</v>
@@ -1164,7 +1166,7 @@
         <v>31</v>
       </c>
       <c r="B24">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C24">
         <v>60.84</v>
@@ -1193,7 +1195,7 @@
         <v>32</v>
       </c>
       <c r="B25">
-        <v>68.91</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>60.84</v>

--- a/klassegr/klassegrenser_PIT.xlsx
+++ b/klassegr/klassegrenser_PIT.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\NI_vannf\klassegr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nina\NatInd\2023\klassegr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B78AEF6-6EEE-44CE-AEB7-11BE54F6C496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC296F8-95BA-4F02-9658-DE3D839744C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +549,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I2">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -578,7 +578,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I3">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I4">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -636,7 +636,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I5">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -665,7 +665,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I6">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -694,7 +694,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I7">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -723,7 +723,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I8">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -752,7 +752,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I9">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="I10">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -810,7 +810,7 @@
         <v>6.71</v>
       </c>
       <c r="I11">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>6.71</v>
       </c>
       <c r="I12">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>6.71</v>
       </c>
       <c r="I13">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -897,7 +897,7 @@
         <v>6.71</v>
       </c>
       <c r="I14">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
         <v>6.71</v>
       </c>
       <c r="I15">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -955,7 +955,7 @@
         <v>6.71</v>
       </c>
       <c r="I16">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>6.71</v>
       </c>
       <c r="I17">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1013,7 +1013,7 @@
         <v>6.71</v>
       </c>
       <c r="I18">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1042,7 +1042,7 @@
         <v>6.71</v>
       </c>
       <c r="I19">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1071,7 +1071,7 @@
         <v>6.71</v>
       </c>
       <c r="I20">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1100,7 +1100,7 @@
         <v>6.71</v>
       </c>
       <c r="I21">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
         <v>6.71</v>
       </c>
       <c r="I22">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
         <v>6.71</v>
       </c>
       <c r="I23">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1187,7 +1187,7 @@
         <v>6.71</v>
       </c>
       <c r="I24">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1216,7 +1216,7 @@
         <v>6.71</v>
       </c>
       <c r="I25">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>

--- a/klassegr/klassegrenser_PIT.xlsx
+++ b/klassegr/klassegrenser_PIT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nina\NatInd\2023\klassegr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NINA\OkoTilst\Pilot25\ecRxiv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC296F8-95BA-4F02-9658-DE3D839744C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6697161D-8DDE-4F41-AB33-603B752FE207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>typ</t>
   </si>
@@ -65,76 +65,28 @@
     <t>max</t>
   </si>
   <si>
-    <t>R101</t>
-  </si>
-  <si>
-    <t>R102</t>
-  </si>
-  <si>
-    <t>R103</t>
-  </si>
-  <si>
-    <t>R201</t>
-  </si>
-  <si>
-    <t>R202</t>
-  </si>
-  <si>
-    <t>R203</t>
-  </si>
-  <si>
-    <t>R301</t>
-  </si>
-  <si>
-    <t>R302</t>
-  </si>
-  <si>
-    <t>R303</t>
-  </si>
-  <si>
-    <t>R104</t>
-  </si>
-  <si>
-    <t>R105</t>
-  </si>
-  <si>
-    <t>R106</t>
-  </si>
-  <si>
-    <t>R107</t>
-  </si>
-  <si>
-    <t>R108</t>
-  </si>
-  <si>
-    <t>R109</t>
-  </si>
-  <si>
-    <t>R110</t>
-  </si>
-  <si>
-    <t>R204</t>
-  </si>
-  <si>
-    <t>R205</t>
-  </si>
-  <si>
-    <t>R206</t>
-  </si>
-  <si>
-    <t>R207</t>
-  </si>
-  <si>
-    <t>R208</t>
-  </si>
-  <si>
-    <t>R304</t>
-  </si>
-  <si>
-    <t>R305</t>
-  </si>
-  <si>
-    <t>R306</t>
+    <t>R...1..</t>
+  </si>
+  <si>
+    <t>R...5..</t>
+  </si>
+  <si>
+    <t>R...6..</t>
+  </si>
+  <si>
+    <t>R...7..</t>
+  </si>
+  <si>
+    <t>R...8..</t>
+  </si>
+  <si>
+    <t>R...2..</t>
+  </si>
+  <si>
+    <t>R...3..</t>
+  </si>
+  <si>
+    <t>R...4..</t>
   </si>
 </sst>
 </file>
@@ -190,9 +142,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -230,7 +182,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -336,7 +288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -478,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -486,11 +438,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA05597-937A-43B7-A68B-18184DD83021}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -682,16 +632,16 @@
         <v>46</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="H7">
-        <v>4.8499999999999996</v>
+        <v>6.71</v>
       </c>
       <c r="I7">
         <v>1.9</v>
@@ -711,16 +661,16 @@
         <v>46</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="H8">
-        <v>4.8499999999999996</v>
+        <v>6.71</v>
       </c>
       <c r="I8">
         <v>1.9</v>
@@ -740,482 +690,18 @@
         <v>46</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="G9">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="H9">
-        <v>4.8499999999999996</v>
+        <v>6.71</v>
       </c>
       <c r="I9">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>69</v>
-      </c>
-      <c r="C10">
-        <v>60.84</v>
-      </c>
-      <c r="D10">
-        <v>46</v>
-      </c>
-      <c r="E10">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <v>14.5</v>
-      </c>
-      <c r="G10">
-        <v>5.5</v>
-      </c>
-      <c r="H10">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="I10">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>69</v>
-      </c>
-      <c r="C11">
-        <v>60.84</v>
-      </c>
-      <c r="D11">
-        <v>46</v>
-      </c>
-      <c r="E11">
-        <v>31</v>
-      </c>
-      <c r="F11">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>9.5</v>
-      </c>
-      <c r="H11">
-        <v>6.71</v>
-      </c>
-      <c r="I11">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>69</v>
-      </c>
-      <c r="C12">
-        <v>60.84</v>
-      </c>
-      <c r="D12">
-        <v>46</v>
-      </c>
-      <c r="E12">
-        <v>31</v>
-      </c>
-      <c r="F12">
-        <v>16</v>
-      </c>
-      <c r="G12">
-        <v>9.5</v>
-      </c>
-      <c r="H12">
-        <v>6.71</v>
-      </c>
-      <c r="I12">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>69</v>
-      </c>
-      <c r="C13">
-        <v>60.84</v>
-      </c>
-      <c r="D13">
-        <v>46</v>
-      </c>
-      <c r="E13">
-        <v>31</v>
-      </c>
-      <c r="F13">
-        <v>16</v>
-      </c>
-      <c r="G13">
-        <v>9.5</v>
-      </c>
-      <c r="H13">
-        <v>6.71</v>
-      </c>
-      <c r="I13">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>69</v>
-      </c>
-      <c r="C14">
-        <v>60.84</v>
-      </c>
-      <c r="D14">
-        <v>46</v>
-      </c>
-      <c r="E14">
-        <v>31</v>
-      </c>
-      <c r="F14">
-        <v>16</v>
-      </c>
-      <c r="G14">
-        <v>9.5</v>
-      </c>
-      <c r="H14">
-        <v>6.71</v>
-      </c>
-      <c r="I14">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
-        <v>69</v>
-      </c>
-      <c r="C15">
-        <v>60.84</v>
-      </c>
-      <c r="D15">
-        <v>46</v>
-      </c>
-      <c r="E15">
-        <v>31</v>
-      </c>
-      <c r="F15">
-        <v>16</v>
-      </c>
-      <c r="G15">
-        <v>9.5</v>
-      </c>
-      <c r="H15">
-        <v>6.71</v>
-      </c>
-      <c r="I15">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16">
-        <v>69</v>
-      </c>
-      <c r="C16">
-        <v>60.84</v>
-      </c>
-      <c r="D16">
-        <v>46</v>
-      </c>
-      <c r="E16">
-        <v>31</v>
-      </c>
-      <c r="F16">
-        <v>16</v>
-      </c>
-      <c r="G16">
-        <v>9.5</v>
-      </c>
-      <c r="H16">
-        <v>6.71</v>
-      </c>
-      <c r="I16">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>69</v>
-      </c>
-      <c r="C17">
-        <v>60.84</v>
-      </c>
-      <c r="D17">
-        <v>46</v>
-      </c>
-      <c r="E17">
-        <v>31</v>
-      </c>
-      <c r="F17">
-        <v>16</v>
-      </c>
-      <c r="G17">
-        <v>9.5</v>
-      </c>
-      <c r="H17">
-        <v>6.71</v>
-      </c>
-      <c r="I17">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>69</v>
-      </c>
-      <c r="C18">
-        <v>60.84</v>
-      </c>
-      <c r="D18">
-        <v>46</v>
-      </c>
-      <c r="E18">
-        <v>31</v>
-      </c>
-      <c r="F18">
-        <v>16</v>
-      </c>
-      <c r="G18">
-        <v>9.5</v>
-      </c>
-      <c r="H18">
-        <v>6.71</v>
-      </c>
-      <c r="I18">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <v>69</v>
-      </c>
-      <c r="C19">
-        <v>60.84</v>
-      </c>
-      <c r="D19">
-        <v>46</v>
-      </c>
-      <c r="E19">
-        <v>31</v>
-      </c>
-      <c r="F19">
-        <v>16</v>
-      </c>
-      <c r="G19">
-        <v>9.5</v>
-      </c>
-      <c r="H19">
-        <v>6.71</v>
-      </c>
-      <c r="I19">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <v>69</v>
-      </c>
-      <c r="C20">
-        <v>60.84</v>
-      </c>
-      <c r="D20">
-        <v>46</v>
-      </c>
-      <c r="E20">
-        <v>31</v>
-      </c>
-      <c r="F20">
-        <v>16</v>
-      </c>
-      <c r="G20">
-        <v>9.5</v>
-      </c>
-      <c r="H20">
-        <v>6.71</v>
-      </c>
-      <c r="I20">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21">
-        <v>69</v>
-      </c>
-      <c r="C21">
-        <v>60.84</v>
-      </c>
-      <c r="D21">
-        <v>46</v>
-      </c>
-      <c r="E21">
-        <v>31</v>
-      </c>
-      <c r="F21">
-        <v>16</v>
-      </c>
-      <c r="G21">
-        <v>9.5</v>
-      </c>
-      <c r="H21">
-        <v>6.71</v>
-      </c>
-      <c r="I21">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22">
-        <v>69</v>
-      </c>
-      <c r="C22">
-        <v>60.84</v>
-      </c>
-      <c r="D22">
-        <v>46</v>
-      </c>
-      <c r="E22">
-        <v>31</v>
-      </c>
-      <c r="F22">
-        <v>16</v>
-      </c>
-      <c r="G22">
-        <v>9.5</v>
-      </c>
-      <c r="H22">
-        <v>6.71</v>
-      </c>
-      <c r="I22">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23">
-        <v>69</v>
-      </c>
-      <c r="C23">
-        <v>60.84</v>
-      </c>
-      <c r="D23">
-        <v>46</v>
-      </c>
-      <c r="E23">
-        <v>31</v>
-      </c>
-      <c r="F23">
-        <v>16</v>
-      </c>
-      <c r="G23">
-        <v>9.5</v>
-      </c>
-      <c r="H23">
-        <v>6.71</v>
-      </c>
-      <c r="I23">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24">
-        <v>69</v>
-      </c>
-      <c r="C24">
-        <v>60.84</v>
-      </c>
-      <c r="D24">
-        <v>46</v>
-      </c>
-      <c r="E24">
-        <v>31</v>
-      </c>
-      <c r="F24">
-        <v>16</v>
-      </c>
-      <c r="G24">
-        <v>9.5</v>
-      </c>
-      <c r="H24">
-        <v>6.71</v>
-      </c>
-      <c r="I24">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25">
-        <v>69</v>
-      </c>
-      <c r="C25">
-        <v>60.84</v>
-      </c>
-      <c r="D25">
-        <v>46</v>
-      </c>
-      <c r="E25">
-        <v>31</v>
-      </c>
-      <c r="F25">
-        <v>16</v>
-      </c>
-      <c r="G25">
-        <v>9.5</v>
-      </c>
-      <c r="H25">
-        <v>6.71</v>
-      </c>
-      <c r="I25">
         <v>1.9</v>
       </c>
     </row>

--- a/klassegr/klassegrenser_PIT.xlsx
+++ b/klassegr/klassegrenser_PIT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NINA\OkoTilst\Pilot25\ecRxiv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\61308-01_fu_intern_hanno_sandvik\ecRxiv_vann\indicators\NO_WXXX_999\klassegr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6697161D-8DDE-4F41-AB33-603B752FE207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82586336-1173-4342-ACF1-26FE5D06F3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{3A75F986-4B69-4A9F-BCAA-E28782105059}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,30 +41,6 @@
     <t>typ</t>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>SD_nedre</t>
-  </si>
-  <si>
-    <t>SD_D</t>
-  </si>
-  <si>
-    <t>D_M</t>
-  </si>
-  <si>
-    <t>M_G</t>
-  </si>
-  <si>
-    <t>G_SG</t>
-  </si>
-  <si>
-    <t>SG_øvre</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
     <t>R...1..</t>
   </si>
   <si>
@@ -87,6 +63,30 @@
   </si>
   <si>
     <t>R...4..</t>
+  </si>
+  <si>
+    <t>pess</t>
+  </si>
+  <si>
+    <t>X0</t>
+  </si>
+  <si>
+    <t>X20</t>
+  </si>
+  <si>
+    <t>X40</t>
+  </si>
+  <si>
+    <t>X60</t>
+  </si>
+  <si>
+    <t>X80</t>
+  </si>
+  <si>
+    <t>X100</t>
+  </si>
+  <si>
+    <t>opt</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA05597-937A-43B7-A68B-18184DD83021}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -449,33 +451,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>69</v>
@@ -504,7 +506,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>69</v>
@@ -533,7 +535,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>69</v>
@@ -562,7 +564,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>69</v>
@@ -591,7 +593,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>69</v>
@@ -620,7 +622,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>69</v>
@@ -649,7 +651,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>69</v>
@@ -678,7 +680,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>69</v>
